--- a/服装行业总资产报酬率数据.xlsx
+++ b/服装行业总资产报酬率数据.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2225,6 +2225,249 @@
         <v>1</v>
       </c>
     </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>06288.HK</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>迅销</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>20231231</v>
+      </c>
+      <c r="D59" t="n">
+        <v>10.86904761904762</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F59" t="n">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>06288.HK</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>迅销</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>20240630</v>
+      </c>
+      <c r="D60" t="n">
+        <v>12.52173913043478</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F60" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>06288.HK</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>迅销</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>20241231</v>
+      </c>
+      <c r="D61" t="n">
+        <v>12.55813953488372</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F61" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>02331.HK</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">李宁 </t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>20231231</v>
+      </c>
+      <c r="D62" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F62" t="n">
+        <v>9.32</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>02331.HK</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">李宁 </t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>20240630</v>
+      </c>
+      <c r="D63" t="n">
+        <v>13.61</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F63" t="n">
+        <v>5.489999999999999</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>02331.HK</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">李宁 </t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>20241231</v>
+      </c>
+      <c r="D64" t="n">
+        <v>10.51</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F64" t="n">
+        <v>8.44</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>03998.HK</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>波司登</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>20231231</v>
+      </c>
+      <c r="D65" t="n">
+        <v>13.44</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F65" t="n">
+        <v>11.39</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>03998.HK</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>波司登</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>20240630</v>
+      </c>
+      <c r="D66" t="n">
+        <v>12.97</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F66" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>03998.HK</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>波司登</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>20241231</v>
+      </c>
+      <c r="D67" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="F67" t="n">
+        <v>12.96</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
